--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-47134.0994505218</v>
+        <v>-49572.57255026841</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>393.3220484490198</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>75.27451269446462</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>89.12890951355598</v>
       </c>
       <c r="X2" t="n">
-        <v>97.97516419106621</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>119.1960612277675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -877,7 +877,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>101.6808565452323</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>199.291040571591</v>
+        <v>271.7481843607731</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.62593345951002</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,7 +1060,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1102,19 +1102,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>69.25160695998082</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>323.7917470591859</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>147.0290144562267</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>228.70186509677</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>261.8346764995922</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206807</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182199</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>101.6969570046888</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>115.7063133373723</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>33.82891891787308</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365929</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>7.602497644398836</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505377</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>125.3789405564517</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>35.55160172423379</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,13 +2296,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>166.6849833227417</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>79.70119244397701</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2719,10 +2719,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>71.22475183604968</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>41.55695577161193</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.28101103997165</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>129.1078928223853</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,10 +3247,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>245.2253307362462</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3436,13 +3436,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>52.47682210852985</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>51.36569740310382</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>13.03790159951687</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,19 +3904,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>107.1821924454418</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>139.5271979141365</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,10 +4192,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1484.057685718026</v>
+        <v>1644.018133962838</v>
       </c>
       <c r="C2" t="n">
-        <v>1115.095168777614</v>
+        <v>1275.055617022426</v>
       </c>
       <c r="D2" t="n">
-        <v>756.8294701708639</v>
+        <v>916.7899184156756</v>
       </c>
       <c r="E2" t="n">
-        <v>371.0412175726196</v>
+        <v>916.7899184156756</v>
       </c>
       <c r="F2" t="n">
-        <v>364.0957168234162</v>
+        <v>505.8040136260681</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3249.570960301631</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3043.593212685853</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3043.593212685853</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>2712.530325342282</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W2" t="n">
-        <v>2359.761670072168</v>
+        <v>2794.223064263851</v>
       </c>
       <c r="X2" t="n">
-        <v>2260.79685775796</v>
+        <v>2420.757306002771</v>
       </c>
       <c r="Y2" t="n">
-        <v>1870.657525782148</v>
+        <v>2030.617974026959</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4383,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
         <v>765.151745215813</v>
@@ -4425,10 +4425,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>627.8744564335971</v>
+        <v>1829.439076478657</v>
       </c>
       <c r="C4" t="n">
-        <v>627.8744564335971</v>
+        <v>1829.439076478657</v>
       </c>
       <c r="D4" t="n">
-        <v>477.7578170212613</v>
+        <v>1829.439076478657</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>1709.039014632427</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.46409084602</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415546</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="U4" t="n">
-        <v>1615.697475415546</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="V4" t="n">
-        <v>1361.012987209659</v>
+        <v>2567.638376557165</v>
       </c>
       <c r="W4" t="n">
-        <v>1258.305051305384</v>
+        <v>2278.221206520204</v>
       </c>
       <c r="X4" t="n">
-        <v>1030.315500407367</v>
+        <v>2050.231655622187</v>
       </c>
       <c r="Y4" t="n">
-        <v>809.5229212638368</v>
+        <v>1829.439076478657</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1548.419770374778</v>
+        <v>1537.086630593157</v>
       </c>
       <c r="C5" t="n">
-        <v>1548.419770374778</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D5" t="n">
-        <v>1190.154071768027</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2664.793515881784</v>
+        <v>2687.29156089417</v>
       </c>
       <c r="W5" t="n">
-        <v>2312.024860611669</v>
+        <v>2687.29156089417</v>
       </c>
       <c r="X5" t="n">
-        <v>1938.559102350589</v>
+        <v>2313.82580263309</v>
       </c>
       <c r="Y5" t="n">
-        <v>1548.419770374778</v>
+        <v>1923.686470657279</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>797.4834000772721</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C7" t="n">
-        <v>628.5472171493652</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>478.4305777370295</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
         <v>478.4305777370295</v>
@@ -4720,7 +4720,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="U7" t="n">
-        <v>1837.464090846021</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="V7" t="n">
-        <v>1582.779602640134</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="W7" t="n">
-        <v>1293.362432603173</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X7" t="n">
-        <v>1065.372881705156</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y7" t="n">
-        <v>844.5803025616257</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>758.7856865549918</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>400.5199879482413</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>400.5199879482413</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>393.5744871990378</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>3177.09166559278</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2824.323010322666</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>2824.323010322666</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,49 +4884,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>676.468527222536</v>
+        <v>943.7005868594143</v>
       </c>
       <c r="C10" t="n">
-        <v>507.5323442946291</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1414.766221726615</v>
       </c>
       <c r="V10" t="n">
-        <v>1161.740577577775</v>
+        <v>1414.766221726615</v>
       </c>
       <c r="W10" t="n">
-        <v>897.2611063660661</v>
+        <v>1125.349051689654</v>
       </c>
       <c r="X10" t="n">
-        <v>897.2611063660661</v>
+        <v>1125.349051689654</v>
       </c>
       <c r="Y10" t="n">
-        <v>676.468527222536</v>
+        <v>1125.349051689654</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191922</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349506</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.913939313769</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1964.511902868375</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400703</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400703</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>363.736961327727</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138402</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.50206557031</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5270,13 +5270,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075805</v>
@@ -5285,25 +5285,25 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.8431516380867</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>572.9069687101799</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>422.7903292978441</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>274.877235715451</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>127.9872882175406</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611857</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611857</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683265</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="17">
@@ -5507,40 +5507,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>95.58405025273903</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5738,31 +5738,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>120.680066384834</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5603720565526</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380886</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5944,16 +5944,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1520.017183831735</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1230.600013794774</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>1002.610462896757</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683283</v>
+        <v>781.8178837532264</v>
       </c>
     </row>
     <row r="23">
@@ -5975,31 +5975,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1031.260321675049</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>862.3241387471426</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>712.2074993348068</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6184,13 +6184,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1433.701365648819</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1212.908786505289</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.192580311172</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1023.721406539404</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C28" t="n">
-        <v>854.7852236114967</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D28" t="n">
-        <v>704.6685841991609</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>556.7554906167678</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.369871369643</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y28" t="n">
-        <v>1205.369871369643</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,13 +6473,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>671.2000270096656</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>989.3306680894888</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C31" t="n">
-        <v>820.3944851615819</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D31" t="n">
-        <v>670.2778457492461</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E31" t="n">
-        <v>522.364752166853</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>375.4748046689426</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1170.979132919728</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,10 +6710,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373306</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>783.5579673960132</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>614.6217844681063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>464.5051450557705</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1185.999011369783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1185.999011369783</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>965.2064322262529</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,16 +7008,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7026,16 +7026,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>931.4710609784063</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5348780504994</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>583.3384263047943</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>435.4253327224012</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578601</v>
+        <v>288.5353852244908</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2395.078540748843</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>2106.003314093041</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>1851.318825887154</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W37" t="n">
-        <v>1561.901655850193</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X37" t="n">
-        <v>1333.912104952176</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.119525808646</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,13 +7184,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>634.5603720565524</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000582</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,31 +7391,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>915.1035305473703</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>746.1673476194634</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>746.1673476194634</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>598.2542540370703</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>451.3643065391599</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>284.1682072540398</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1688.385853854707</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1460.396302956689</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1239.603723813159</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>-2.410024352785539e-13</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,19 +22595,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>33.91324909371124</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>260.112059203857</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22753,19 +22753,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>184.8421417913588</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>44.73700564188042</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016463</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>131.6952193743958</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>218.1071577446383</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.20571279564307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>131.695219374394</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>85.45266000108631</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>66.73277020259216</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,10 +24607,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>74.19629618688157</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>24.81829093850975</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2431272522972</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>36.41624546988359</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,10 +25135,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>41.29766760034477</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>113.047316183739</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>166.0397529241845</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>273.1465727897273</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>33.1125204007821</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>40.30478226780076</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,10 +26080,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1018732.950875932</v>
+        <v>1018732.950875931</v>
       </c>
     </row>
     <row r="3">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1100626.900951731</v>
+        <v>1100626.90095173</v>
       </c>
     </row>
     <row r="8">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>298593.7657794693</v>
+        <v>298593.7657794694</v>
       </c>
       <c r="C2" t="n">
         <v>328416.7079457132</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="E2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="F2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="G2" t="n">
         <v>322858.6398760024</v>
@@ -26332,7 +26332,7 @@
         <v>322858.6398760023</v>
       </c>
       <c r="I2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="J2" t="n">
         <v>322858.6398760024</v>
@@ -26347,10 +26347,10 @@
         <v>322858.6398760024</v>
       </c>
       <c r="N2" t="n">
+        <v>322858.6398760024</v>
+      </c>
+      <c r="O2" t="n">
         <v>322858.6398760023</v>
-      </c>
-      <c r="O2" t="n">
-        <v>322858.6398760026</v>
       </c>
       <c r="P2" t="n">
         <v>322858.6398760024</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073547</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48409.12727549201</v>
+        <v>48409.12727549195</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26433,7 +26433,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680584</v>
+        <v>11776.97621680581</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
@@ -26442,19 +26442,19 @@
         <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680579</v>
+        <v>11776.97621680581</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.9762168058</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="P4" t="n">
         <v>11776.97621680582</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1186494.047785008</v>
+        <v>-1186680.441173547</v>
       </c>
       <c r="C6" t="n">
-        <v>129518.7563961626</v>
+        <v>129518.7563961629</v>
       </c>
       <c r="D6" t="n">
         <v>129518.7563961629</v>
       </c>
       <c r="E6" t="n">
-        <v>-115453.3279720652</v>
+        <v>-115488.0658975014</v>
       </c>
       <c r="F6" t="n">
-        <v>209959.1338352891</v>
+        <v>209924.3959098538</v>
       </c>
       <c r="G6" t="n">
-        <v>209959.1338352895</v>
+        <v>209924.3959098538</v>
       </c>
       <c r="H6" t="n">
-        <v>209959.1338352893</v>
+        <v>209924.3959098537</v>
       </c>
       <c r="I6" t="n">
-        <v>209959.1338352896</v>
+        <v>209924.3959098537</v>
       </c>
       <c r="J6" t="n">
-        <v>-7572.068561987951</v>
+        <v>-7606.806487423702</v>
       </c>
       <c r="K6" t="n">
-        <v>209959.1338352893</v>
+        <v>209924.3959098538</v>
       </c>
       <c r="L6" t="n">
-        <v>209959.1338352895</v>
+        <v>209924.3959098538</v>
       </c>
       <c r="M6" t="n">
-        <v>124904.1058997777</v>
+        <v>124869.3679743419</v>
       </c>
       <c r="N6" t="n">
-        <v>209959.1338352894</v>
+        <v>209924.3959098537</v>
       </c>
       <c r="O6" t="n">
-        <v>209959.1338352897</v>
+        <v>209924.3959098536</v>
       </c>
       <c r="P6" t="n">
-        <v>209959.1338352895</v>
+        <v>209924.3959098537</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26960,16 +26960,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,10 +27388,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>17.59967720443365</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>271.7559364874028</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>27.23790141880163</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>128.4612178985439</v>
+        <v>56.0040741093618</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.2060467224273</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>150.2973423161884</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>87.12997859426758</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>180.7232440139082</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>57.50997310884284</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>24.6883218369988</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28251,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-5.25812187936948e-12</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28545,7 +28545,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,34 +31841,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M12" t="n">
-        <v>560.1612034965819</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32072,31 +32072,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>324.9782573297445</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>153.972377511982</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>194.5189324111251</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32722,7 +32722,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
         <v>790.8204499236507</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N24" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,10 +32941,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>391.605194951448</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>231.5286848890169</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>602.4605829984174</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,19 +33737,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33758,16 +33758,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>194.5189324111248</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>681.5735157229393</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>377.6350660745949</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M12" t="n">
-        <v>418.0271695745637</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789205</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>187.1368183553855</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>27.13475084531533</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>55.9645526312509</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N24" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,10 +36589,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>253.0508151715738</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,22 +36914,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>92.97430510914269</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>471.1188709150841</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,16 +37388,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37406,7 +37406,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>55.96455263125056</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>550.231803639606</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>235.5010321525766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
